--- a/Capstone Project/Digital Marketing Project/Digital Marketing Input.xlsx
+++ b/Capstone Project/Digital Marketing Project/Digital Marketing Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Internship Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765E99A8-2329-4217-8EC5-345F03D50A37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90C08D-CCCC-469A-8915-1262AB3B464F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{91A20AD0-712D-465C-BA3E-07B7D794F452}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{91A20AD0-712D-465C-BA3E-07B7D794F452}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Platform</t>
   </si>
@@ -79,24 +79,40 @@
   </si>
   <si>
     <t>Enter Password</t>
+  </si>
+  <si>
+    <t>G1ANT Bot</t>
+  </si>
+  <si>
+    <t>C:\Users\AISHWARYA\Downloads\Promotional_Content.png</t>
+  </si>
+  <si>
+    <t>Enter a LinkedIn Email Here</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Instagram username here</t>
+  </si>
+  <si>
+    <t>1.image.jpg (Image file name)</t>
+  </si>
+  <si>
+    <t>1.video (video file name)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,19 +135,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,18 +458,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DCB9F3-0705-4027-926A-C11096A4DA79}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.21875" customWidth="1"/>
@@ -489,10 +504,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K1" t="s">
@@ -509,7 +524,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
@@ -522,11 +537,48 @@
         <v>15</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="pardhibadal19970@gmail.com" xr:uid="{226145BE-10E2-4F57-9AA6-ACCB22B12E36}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>